--- a/Lista 2/Monitoria2.xlsx
+++ b/Lista 2/Monitoria2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tebaldi\Documents\GitHub\GestaoDeRiqueza\Lista 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AAA8521-361D-4F99-B328-3DC6EEEB8CCF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45141E63-007B-4B3C-BF8B-C6DD988D57BD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{8B32B87F-3B9C-4DA0-AC20-70AE947B8F39}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{8B32B87F-3B9C-4DA0-AC20-70AE947B8F39}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="15" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>S</t>
   </si>
@@ -54,15 +54,6 @@
   </si>
   <si>
     <t>GR</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>Z</t>
@@ -224,7 +215,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -360,9 +351,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849E17B9-A21A-4F08-9203-0E5CEA4C05AF}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -726,7 +717,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
@@ -736,10 +727,10 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="I1" s="11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -872,15 +863,15 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="13">
         <v>7.3910000000000003E-2</v>
@@ -888,7 +879,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="13">
         <v>7.145E-2</v>
@@ -896,7 +887,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13">
         <v>7.0540000000000005E-2</v>
@@ -904,7 +895,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="13">
         <v>7.0000000000000007E-2</v>
@@ -912,7 +903,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="13">
         <v>6.9400000000000003E-2</v>
@@ -920,7 +911,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="13">
         <v>6.9199999999999998E-2</v>
@@ -928,7 +919,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="13">
         <v>6.93E-2</v>
@@ -936,7 +927,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="13">
         <v>6.9099999999999995E-2</v>
@@ -944,7 +935,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="13">
         <v>6.9269999999999998E-2</v>
@@ -952,7 +943,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="13">
         <v>6.9599999999999995E-2</v>
@@ -960,7 +951,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="13">
         <v>7.0099999999999996E-2</v>
@@ -968,7 +959,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" s="13">
         <v>7.0699999999999999E-2</v>
@@ -976,7 +967,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B15" s="13">
         <v>7.2099999999999997E-2</v>
@@ -984,7 +975,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="13">
         <v>7.4999999999999997E-2</v>
@@ -992,7 +983,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B17" s="13">
         <v>7.8399999999999997E-2</v>
@@ -1000,7 +991,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="13">
         <v>8.1900000000000001E-2</v>
@@ -1008,7 +999,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="13">
         <v>8.4600000000000009E-2</v>
@@ -1016,7 +1007,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" s="13">
         <v>8.7100000000000011E-2</v>
@@ -1024,7 +1015,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="13">
         <v>8.929999999999999E-2</v>
@@ -1032,7 +1023,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" s="13">
         <v>9.1499999999999998E-2</v>
@@ -1040,7 +1031,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" s="13">
         <v>9.3100000000000002E-2</v>
@@ -1048,7 +1039,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="13">
         <v>9.4600000000000004E-2</v>
@@ -1056,7 +1047,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="13">
         <v>9.6000000000000002E-2</v>
@@ -1064,7 +1055,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26" s="13">
         <v>9.7500000000000003E-2</v>
@@ -1072,7 +1063,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" s="13">
         <v>9.820000000000001E-2</v>
@@ -1080,7 +1071,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" s="13">
         <v>9.8989999999999995E-2</v>
@@ -1088,7 +1079,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29" s="13">
         <v>9.98E-2</v>
@@ -1096,7 +1087,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" s="13">
         <v>0.10037000000000001</v>
@@ -1104,7 +1095,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="13">
         <v>0.1011</v>
@@ -1117,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E7AE8-4B9D-40A5-866D-ADCF131970F8}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="A15:XFD15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,23 +1119,20 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="14">
         <v>0.2</v>
@@ -1156,12 +1144,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="15">
         <v>0.5</v>
@@ -1171,12 +1156,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="16">
         <v>0.3</v>
@@ -1188,9 +1170,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <f>SUM(C2:C4)</f>
@@ -1205,23 +1187,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="C10" s="14">
         <v>0.4</v>
@@ -1231,12 +1210,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="15">
         <v>0.3</v>
@@ -1248,12 +1224,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="16">
         <v>0.3</v>
@@ -1265,9 +1238,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <f>SUM(C10:C12)</f>
@@ -1291,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5170337-1217-47CE-9606-27FABC817DA9}">
   <dimension ref="A1:H730"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,28 +1278,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
